--- a/target/test-classes/testData/Practice.xlsx
+++ b/target/test-classes/testData/Practice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TestingFramework\FrameWork\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7254CA19-270F-42B5-98B0-6E54EB6F23D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9972221-1A0B-43A3-B327-C491B3464FE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="20" windowWidth="19180" windowHeight="10060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -364,7 +364,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
